--- a/output/12-functional-enrichment/manual-annotations/all-BP-EnrichedGO-DML-ManAnn.xlsx
+++ b/output/12-functional-enrichment/manual-annotations/all-BP-EnrichedGO-DML-ManAnn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaaminivenkataraman/Documents/project-gigas-oa-meth/output/12-functional-enrichment/manual-annotations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5B67E110-F9E6-7043-A8AD-E936E8A0EAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F5184E89-9071-B94F-84D3-27A092DF17CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="all-BP-EnrichedGO-DML-ManAnn" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="152">
   <si>
     <t>GOID</t>
   </si>
@@ -386,9 +386,6 @@
     <t>Product</t>
   </si>
   <si>
-    <t>Function</t>
-  </si>
-  <si>
     <t>serine-protein kinase ATM-like</t>
   </si>
   <si>
@@ -407,7 +404,82 @@
     <t>serine/threonine-protein kinase pim-3</t>
   </si>
   <si>
-    <t>Unknown</t>
+    <t>dynein heavy chain 5, axonemal</t>
+  </si>
+  <si>
+    <t>unconventional myosin-VI</t>
+  </si>
+  <si>
+    <t>serine/threonine-protein kinase 36</t>
+  </si>
+  <si>
+    <t>helicase domino</t>
+  </si>
+  <si>
+    <t>protein neuralized</t>
+  </si>
+  <si>
+    <t>cytoplasmic aconitate hydratase</t>
+  </si>
+  <si>
+    <t>serine-protein kinase ATM</t>
+  </si>
+  <si>
+    <t>cation-independent mannose-6-phosphate receptor</t>
+  </si>
+  <si>
+    <t>uncharacterized LOC105324167</t>
+  </si>
+  <si>
+    <t>This gene encodes a dynein protein, which is part of a microtubule-associated motor protein complex consisting of heavy, light, and intermediate chains. This protein is an axonemal heavy chain dynein. It functions as a force-generating protein with ATPase activity, whereby the release of ADP is thought to produce the force-producing power stroke (RefSeq, Oct 2009)</t>
+  </si>
+  <si>
+    <t>This gene encodes a reverse-direction motor protein that moves toward the minus end of actin filaments and plays a role in intracellular vesicle and organelle transport. The protein consists of a motor domain containing an ATP- and an actin-binding site and a globular tail which interacts with other proteins (RefSeq, July 2014)</t>
+  </si>
+  <si>
+    <t>This gene encodes a member of the serine/threonine kinase family of enzymes. This family member is similar to a Drosophila protein that plays a key role in the Hedgehog signaling pathway. This human protein is a positive regulator of the GLI zinc-finger transcription factors (RefSeq, Aug 2011)</t>
+  </si>
+  <si>
+    <t>Mediates the ATP-dependent exchange of unmodified histone H2AV for its phosphorylated and acetylated form H2AVK5acS138ph, leading to transcriptional regulation of selected genes by chromatin remodeling. Required for somatic stem cell self-renewal but not for germline stem cell self-renewal. Involved in oogenesis. (UniProtKB)</t>
+  </si>
+  <si>
+    <t>Involved in neurogenesis. Interacts with other neurogenic proteins in the specification of the neuroblast versus epidermoblast cell fate (UniProtKB). This family contains a conserved region approximately 60 residues long within eukaryotic neuralized and neuralized-like proteins. Neuralized belongs to a group of ubiquitin ligases and is required in a subset of Notch pathway-mediated cell fate decisions during development of the Drosophila nervous system. (NCBI)</t>
+  </si>
+  <si>
+    <t>Catalyzes the isomerization of citrate to isocitrate via cis-aconitate (UniProtKB). The protein encoded by this gene is a bifunctional, cytosolic protein that functions as an essential enzyme in the TCA cycle and interacts with mRNA to control the levels of iron inside cells (RefSeq, Jan 2014)</t>
+  </si>
+  <si>
+    <t>The protein encoded by this gene belongs to the PI3/PI4-kinase family. This protein is an important cell cycle checkpoint kinase that phosphorylates; thus, it functions as a regulator of a wide variety of downstream proteins. This protein and the closely related kinase ATR are thought to be master controllers of cell cycle checkpoint signaling pathways that are required for cell response to DNA damage and for genome stability (RefSeq, Aug 2010)</t>
+  </si>
+  <si>
+    <t>Transport of phosphorylated lysosomal enzymes from the Golgi complex and the cell surface to lysosomes. Lysosomal enzymes bearing phosphomannosyl residues bind specifically to mannose-6-phosphate receptors in the Golgi apparatus and the resulting receptor-ligand complex is transported to an acidic prelyosomal compartment where the low pH mediates the dissociation of the complex (UniProtKB)</t>
+  </si>
+  <si>
+    <t>General Function</t>
+  </si>
+  <si>
+    <t>Dheilly et al.  2012 S1: Sex-specific expressed genes</t>
+  </si>
+  <si>
+    <t>Dheilly et al. 2012 S2: Genes differentially expressed over male and/or female gametogenesis</t>
+  </si>
+  <si>
+    <t>Dheilly et al. 2012 S3: Genes differentially expressed between whole stage 3 female gonads and stripped stage 3 oocytes</t>
+  </si>
+  <si>
+    <t>Cluster 5: Increased expression over the course of spermatogenesis (dynein ligiht chan 1, axonemal, 33 kDA inner dynein arm light chain, dynein heavy chain 3, axonemal, dynein light chan LC6, dynein heavy chain 8, dynein alpha chain, flagellar outer arm). Also highly expressed in gills and labial palps, suggesting functional similarities related to flagella and cilia structure and movement (dynein ligiht chan 1, axonemal, 33 kDA inner dynein arm light chain, dynein heavy chain 3, axonemal, dynein light chan LC6).</t>
+  </si>
+  <si>
+    <t>Cluster 1: Decreased expression during gametogenesis, with higher expression in immature gonads. Also enriched for expression/high expression in adductor tissue (myosin heavy chain, striated muscle, tropomyosin), and visceral mass (myosin regulatory light chain, striated adductor muscle). Clusgter 5: Increased expression during gametogenesis (paramyosin)</t>
+  </si>
+  <si>
+    <t>Cluster 2: More expressed in females, found in mature stage 3 gonads only. Highly expressed genes for cell signaling, cell proliferation regulation, and differentiation (serine/threonine-protein kinase Pim-3). Cluster 3: More expressed in females, found in stage 2 gonad (serine/threonine-protein kinase SIK3 homolog). Cluster 5: Increased expression during gametogenesis (tesis-specifric serine/threonine-protein kinase 1). Cluster 7: Highly expressed in stage 3 males and females only (serine/threonine-protein kinase AtPK19). Cluster 8: Highly expressed in stage 2-3 males and females (serine/threonine-protein kinase Chk1, VRK1)</t>
+  </si>
+  <si>
+    <t>Cluster 1: Decreased expression during gametogenesis, higher epxression in immature gonad (myosin heavy chain, striated muscle)</t>
+  </si>
+  <si>
+    <t>Cluster 2: More expressed in female stage 3 gonads only (serine/threonine-protein kinase Pim-3). Cluster 3: More expressed in female stage 2 gonad (SIK3 homolog). Cluster 8: Highly expressed in stage 2-3 males and females (VRK1)</t>
   </si>
 </sst>
 </file>
@@ -897,12 +969,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1260,8 +1333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M183"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="L124" sqref="L124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8795,101 +8868,149 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="62.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="105.1640625" customWidth="1"/>
-    <col min="3" max="3" width="45" customWidth="1"/>
-    <col min="4" max="4" width="36.6640625" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="33.33203125" customWidth="1"/>
+    <col min="1" max="1" width="62.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.1640625" style="3" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="44.5" style="3" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="51" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="45" style="3" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="22" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.33203125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9" ht="153" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="1"/>
+        <v>126</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>114</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="1"/>
+        <v>127</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>114</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="187" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="1"/>
+        <v>128</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>114</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="H4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="1"/>
+        <v>129</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>114</v>
       </c>
@@ -8897,17 +9018,28 @@
         <v>114</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="1"/>
+        <v>130</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>114</v>
       </c>
@@ -8915,17 +9047,28 @@
         <v>114</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="1"/>
+        <v>131</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>114</v>
       </c>
@@ -8933,35 +9076,57 @@
         <v>114</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" s="1"/>
+        <v>132</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>114</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="1"/>
+        <v>133</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>114</v>
       </c>
@@ -8969,18 +9134,27 @@
         <v>114</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>114</v>
@@ -8989,14 +9163,23 @@
         <v>114</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D21" s="2"/>
+      <c r="G10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/output/12-functional-enrichment/manual-annotations/all-BP-EnrichedGO-DML-ManAnn.xlsx
+++ b/output/12-functional-enrichment/manual-annotations/all-BP-EnrichedGO-DML-ManAnn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaaminivenkataraman/Documents/project-gigas-oa-meth/output/12-functional-enrichment/manual-annotations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F5184E89-9071-B94F-84D3-27A092DF17CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{00A31660-6B4E-8D41-94D8-0188600F3DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="1"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="all-BP-EnrichedGO-DML-ManAnn" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="155">
   <si>
     <t>GOID</t>
   </si>
@@ -480,6 +480,15 @@
   </si>
   <si>
     <t>Cluster 2: More expressed in female stage 3 gonads only (serine/threonine-protein kinase Pim-3). Cluster 3: More expressed in female stage 2 gonad (SIK3 homolog). Cluster 8: Highly expressed in stage 2-3 males and females (VRK1)</t>
+  </si>
+  <si>
+    <t>Broquard et al. 2021 Additional File 1: Eighty-four genes identified in the C. gigas transcriptome by RNA-Seq Differential gene Expression Analysis</t>
+  </si>
+  <si>
+    <t>Paramyosin: Highly expressed in females over males in stage 0, but expression declines after stage 0</t>
+  </si>
+  <si>
+    <t>Serine/threonine-protein kinase Nek1: highly expressed in females over males during sex determination/differentiation</t>
   </si>
 </sst>
 </file>
@@ -1333,7 +1342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M183"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" workbookViewId="0">
+    <sheetView topLeftCell="A138" workbookViewId="0">
       <selection activeCell="L124" sqref="L124"/>
     </sheetView>
   </sheetViews>
@@ -8868,9 +8877,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -8881,14 +8890,15 @@
     <col min="3" max="3" width="44.5" style="3" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="54.6640625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="51" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="45" style="3" customWidth="1"/>
-    <col min="7" max="7" width="36.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="22" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.33203125" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="3"/>
+    <col min="6" max="6" width="51" customWidth="1"/>
+    <col min="7" max="7" width="45" style="3" customWidth="1"/>
+    <col min="8" max="8" width="36.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="22" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.33203125" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>119</v>
       </c>
@@ -8904,20 +8914,23 @@
       <c r="E1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="153" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="153" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>126</v>
       </c>
@@ -8937,16 +8950,19 @@
         <v>114</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="119" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="119" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>127</v>
       </c>
@@ -8963,19 +8979,22 @@
         <v>150</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="187" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="187" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>128</v>
       </c>
@@ -8992,19 +9011,22 @@
         <v>151</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="102" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>129</v>
       </c>
@@ -9027,13 +9049,16 @@
         <v>114</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="136" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="136" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>130</v>
       </c>
@@ -9056,13 +9081,16 @@
         <v>114</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>131</v>
       </c>
@@ -9085,13 +9113,16 @@
         <v>114</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="136" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="136" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>132</v>
       </c>
@@ -9111,16 +9142,19 @@
         <v>114</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="119" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="119" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>133</v>
       </c>
@@ -9143,13 +9177,16 @@
         <v>114</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>134</v>
       </c>
@@ -9172,14 +9209,17 @@
         <v>114</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G21" s="2"/>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/output/12-functional-enrichment/manual-annotations/all-BP-EnrichedGO-DML-ManAnn.xlsx
+++ b/output/12-functional-enrichment/manual-annotations/all-BP-EnrichedGO-DML-ManAnn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaaminivenkataraman/Documents/project-gigas-oa-meth/output/12-functional-enrichment/manual-annotations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{00A31660-6B4E-8D41-94D8-0188600F3DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{88409110-A184-9247-B594-5C6EE0D3D833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="164">
   <si>
     <t>GOID</t>
   </si>
@@ -467,9 +467,6 @@
     <t>Dheilly et al. 2012 S3: Genes differentially expressed between whole stage 3 female gonads and stripped stage 3 oocytes</t>
   </si>
   <si>
-    <t>Cluster 5: Increased expression over the course of spermatogenesis (dynein ligiht chan 1, axonemal, 33 kDA inner dynein arm light chain, dynein heavy chain 3, axonemal, dynein light chan LC6, dynein heavy chain 8, dynein alpha chain, flagellar outer arm). Also highly expressed in gills and labial palps, suggesting functional similarities related to flagella and cilia structure and movement (dynein ligiht chan 1, axonemal, 33 kDA inner dynein arm light chain, dynein heavy chain 3, axonemal, dynein light chan LC6).</t>
-  </si>
-  <si>
     <t>Cluster 1: Decreased expression during gametogenesis, with higher expression in immature gonads. Also enriched for expression/high expression in adductor tissue (myosin heavy chain, striated muscle, tropomyosin), and visceral mass (myosin regulatory light chain, striated adductor muscle). Clusgter 5: Increased expression during gametogenesis (paramyosin)</t>
   </si>
   <si>
@@ -489,13 +486,370 @@
   </si>
   <si>
     <t>Serine/threonine-protein kinase Nek1: highly expressed in females over males during sex determination/differentiation</t>
+  </si>
+  <si>
+    <t>Other Notes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Silliman 2019: Outlier SNP loci in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O. lurida</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, related to immune or stress response</t>
+    </r>
+  </si>
+  <si>
+    <t>Pauletto: serine/threonine kinase genes related to oocyte maturation in king scallop. Epelboin: Multiple serine/threonine-protein kinases found in eggs and embryos, including 36. Various gene expression changes in response to abiotic stressors.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Zazueta-Novoa 2014: Low accumulation and spread broadly in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Strongylocentrotus purpuratus </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">egg and embryo during early cleavage divisions, with only a slight increase after gastrulation, relationship to ubiquitination machinery. Jiang 2011: Neuralized-like protein 2 are induced in alveolar type II cells by inflammation, control β-catenin degradation during muscle development and negatively regulate p53, which mediates apoptosis, cell growth and differentiation through the Notch signaling pathway. Up-regulation of neuralized-like protein 2 during diapause they may suppress cell division and macromolecular synthesis in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Artemia sinica. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hu 2005:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Neuralized-like protein 2 may affect cell processes other than via Notch, with outcomes determined by ubiquinitation extent and the ubiquitin lysine used for attachment to target proteins</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Evans 2017: Higher expression in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S. purpuratus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> populations more exposed to low pH conditions after one day of low pH exposure (embryos), but lower expression after seven days of low pH exposure (larvae). Kingtong 2013: Upregulated, energy production during spermatogenesis in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C. gigas.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Boonmee 2016: Associated with energy metabolism, modification of energy production during </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pecten maximus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> gametogenesis. Moreira 2018: Higher protein abundance when </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C. gigas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> exposed to As over low pH, less energy flowing through TCA cycle in low pH. Black 1962: Localized in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C. virginica</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> eggs and trocophores, enzyme activity increases over the course of development</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Moreira 2018: Higher in low pH + As </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C. gigas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, cellular stress response. Epelboin 2016: Mobilized under embryonic development and environmental stress, role in cell-cycle progression. Yao 2021: Involved in female gamete generation and oocyte development in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sinonovacula constricta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (razor clam)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Leprêtre 2020: Positively regulated when exposed to contaminants, potential involvement in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D. polymorpha</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> immunity. Zhang 2018: Upregulated in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Marsupenaeus japonicus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> shrimp exposed to bacteria, promotes epxression of antimicrobial peptides</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">De Witt: dynein highly expressed with relation to moving materials for calcification. Maynard 2018: Axonemal dynein is found in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">O. lurida </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">cilia, bends microtubule complexes to generate fluid flow. Timmins-Schiffman: Differential dynein abundance in response to low pH. Goncalves 2017: Lower abundance in wild type oysters exposed to low pH. Campos 2016: Low salinity decreased dynein heavy chain 5 abundance in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M. edulis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Axonemal dyneins are associated with the microtubules movement in ciia, the cytoplasmic homolgues are primarily involved in organelle transport and centrosome assembly. Porter 1988 and Pratt 1980: Can have dynein in unfertilized sea urchin eggs</t>
+    </r>
+  </si>
+  <si>
+    <t>Cluster 5: Increased expression over the course of spermatogenesis (dynein ligiht chan 1, axonemal, 33 kDA inner dynein arm light chain, dynein heavy chain 3, axonemal, dynein light chan LC6, dynein heavy chain 8, dynein alpha chain, flagellar outer arm). Also highly expressed in gills and labial palps, suggesting functional similarities related to flagella and cilia structure and movement (dynein light chan 1, axonemal, 33 kDA inner dynein arm light chain, dynein heavy chain 3, axonemal, dynein light chan LC6).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sirotkin 2000: Unconventional myosins important for fertilization and post-fertilization embryonic processes (blastulation, gastrulation), developmentally regulated, dynamic early embryogenesis may require the activity of specific classes of myosin motor proteins. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -635,6 +989,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -978,13 +1340,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1342,8 +1707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M183"/>
   <sheetViews>
-    <sheetView topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="L124" sqref="L124"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8877,28 +9242,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="62.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.1640625" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="44.5" style="3" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="54.6640625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="51" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="44.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" customWidth="1"/>
+    <col min="5" max="5" width="50.83203125" customWidth="1"/>
     <col min="6" max="6" width="51" customWidth="1"/>
-    <col min="7" max="7" width="45" style="3" customWidth="1"/>
-    <col min="8" max="8" width="36.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.33203125" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="3"/>
+    <col min="10" max="10" width="33" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="61.6640625" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>119</v>
       </c>
@@ -8915,7 +9281,7 @@
         <v>146</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>121</v>
@@ -8929,8 +9295,11 @@
       <c r="J1" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+      <c r="K1" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="187" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>126</v>
       </c>
@@ -8941,7 +9310,7 @@
         <v>114</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>114</v>
@@ -8961,8 +9330,11 @@
       <c r="J2" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="119" x14ac:dyDescent="0.2">
+      <c r="K2" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="119" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>127</v>
       </c>
@@ -8973,13 +9345,13 @@
         <v>114</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>114</v>
@@ -8993,8 +9365,11 @@
       <c r="J3" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="187" x14ac:dyDescent="0.2">
+      <c r="K3" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="187" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>128</v>
       </c>
@@ -9005,13 +9380,13 @@
         <v>114</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>114</v>
@@ -9025,8 +9400,11 @@
       <c r="J4" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+      <c r="K4" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>129</v>
       </c>
@@ -9057,8 +9435,11 @@
       <c r="J5" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="136" x14ac:dyDescent="0.2">
+      <c r="K5" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="221" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>130</v>
       </c>
@@ -9089,8 +9470,11 @@
       <c r="J6" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+      <c r="K6" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="170" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>131</v>
       </c>
@@ -9121,8 +9505,11 @@
       <c r="J7" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="136" x14ac:dyDescent="0.2">
+      <c r="K7" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="136" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>132</v>
       </c>
@@ -9153,8 +9540,11 @@
       <c r="J8" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="119" x14ac:dyDescent="0.2">
+      <c r="K8" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="119" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>133</v>
       </c>
@@ -9185,8 +9575,11 @@
       <c r="J9" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="K9" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>134</v>
       </c>

--- a/output/12-functional-enrichment/manual-annotations/all-BP-EnrichedGO-DML-ManAnn.xlsx
+++ b/output/12-functional-enrichment/manual-annotations/all-BP-EnrichedGO-DML-ManAnn.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaaminivenkataraman/Documents/project-gigas-oa-meth/output/12-functional-enrichment/manual-annotations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{88409110-A184-9247-B594-5C6EE0D3D833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E844183-C19B-AB4A-BA62-F2126D592121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all-BP-EnrichedGO-DML-ManAnn" sheetId="1" r:id="rId1"/>
@@ -372,9 +372,6 @@
   </si>
   <si>
     <t>Venkataraman et al. 2020</t>
-  </si>
-  <si>
-    <t>dynein heavy chain 1</t>
   </si>
   <si>
     <t>unconventional myosin-XVIIIa-like</t>
@@ -844,11 +841,14 @@
   <si>
     <t xml:space="preserve">Sirotkin 2000: Unconventional myosins important for fertilization and post-fertilization embryonic processes (blastulation, gastrulation), developmentally regulated, dynamic early embryogenesis may require the activity of specific classes of myosin motor proteins. </t>
   </si>
+  <si>
+    <t>dynein heavy chain 1, 8, 12, cytoplasmic dynein 1 heavy chain 1-like, dynein heavy chain 1, cytoplasmic dynein 2 heavy chain 1-like</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1704,7 +1704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9241,11 +9241,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9266,51 +9266,51 @@
   <sheetData>
     <row r="1" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>115</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="187" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>114</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>114</v>
@@ -9322,94 +9322,94 @@
         <v>114</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>116</v>
+        <v>163</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>114</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="119" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>114</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>114</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>114</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="187" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>114</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>114</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="K4" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>114</v>
@@ -9430,21 +9430,21 @@
         <v>114</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>114</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="221" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>114</v>
@@ -9465,21 +9465,21 @@
         <v>114</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>114</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="170" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>114</v>
@@ -9500,21 +9500,21 @@
         <v>114</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>114</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="136" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>114</v>
@@ -9532,24 +9532,24 @@
         <v>114</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>114</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="119" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>114</v>
@@ -9570,18 +9570,18 @@
         <v>114</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>114</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>114</v>
@@ -9605,7 +9605,7 @@
         <v>114</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>114</v>

--- a/output/12-functional-enrichment/manual-annotations/all-BP-EnrichedGO-DML-ManAnn.xlsx
+++ b/output/12-functional-enrichment/manual-annotations/all-BP-EnrichedGO-DML-ManAnn.xlsx
@@ -8,23 +8,58 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaaminivenkataraman/Documents/project-gigas-oa-meth/output/12-functional-enrichment/manual-annotations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E844183-C19B-AB4A-BA62-F2126D592121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5272B6-A10F-1943-A1D7-58CED80B0CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all-BP-EnrichedGO-DML-ManAnn" sheetId="1" r:id="rId1"/>
     <sheet name="functions" sheetId="3" r:id="rId2"/>
+    <sheet name="transcript-gene" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'all-BP-EnrichedGO-DML-ManAnn'!$L$1:$L$183</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'transcript-gene'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="166">
   <si>
     <t>GOID</t>
   </si>
@@ -486,32 +521,6 @@
   </si>
   <si>
     <t>Other Notes</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Silliman 2019: Outlier SNP loci in </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>O. lurida</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, related to immune or stress response</t>
-    </r>
   </si>
   <si>
     <t>Pauletto: serine/threonine kinase genes related to oocyte maturation in king scallop. Epelboin: Multiple serine/threonine-protein kinases found in eggs and embryos, including 36. Various gene expression changes in response to abiotic stressors.</t>
@@ -843,6 +852,38 @@
   </si>
   <si>
     <t>dynein heavy chain 1, 8, 12, cytoplasmic dynein 1 heavy chain 1-like, dynein heavy chain 1, cytoplasmic dynein 2 heavy chain 1-like</t>
+  </si>
+  <si>
+    <t>unique-transcript</t>
+  </si>
+  <si>
+    <t>unique-geneID</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Silliman 2019: Outlier SNP loci in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O. lurida</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, related to immune or stress response. Nilsson 2018: Associated with upregulation of oogenesis in shrimp after handling stress and salinity shock, homeostasis functions.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1708,7 +1749,7 @@
   <dimension ref="A1:M183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9244,8 +9285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="E3" zoomScale="101" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9310,7 +9351,7 @@
         <v>114</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>114</v>
@@ -9322,7 +9363,7 @@
         <v>114</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>123</v>
@@ -9331,7 +9372,7 @@
         <v>114</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="119" x14ac:dyDescent="0.2">
@@ -9366,7 +9407,7 @@
         <v>114</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="187" x14ac:dyDescent="0.2">
@@ -9401,7 +9442,7 @@
         <v>124</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="102" x14ac:dyDescent="0.2">
@@ -9436,7 +9477,7 @@
         <v>114</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="221" x14ac:dyDescent="0.2">
@@ -9471,7 +9512,7 @@
         <v>114</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="170" x14ac:dyDescent="0.2">
@@ -9506,7 +9547,7 @@
         <v>114</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="136" x14ac:dyDescent="0.2">
@@ -9541,7 +9582,7 @@
         <v>114</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="119" x14ac:dyDescent="0.2">
@@ -9576,7 +9617,7 @@
         <v>114</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -9618,4 +9659,1638 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE566BD2-9D14-BD4A-A53A-6AEB3AF40A1E}">
+  <dimension ref="A1:E183"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2">
+        <v>105317044</v>
+      </c>
+      <c r="C2" t="str" cm="1">
+        <f t="array" ref="C2:C38">_xlfn.UNIQUE(A2:A183)</f>
+        <v>XM_034465734.1</v>
+      </c>
+      <c r="E2" cm="1">
+        <f t="array" ref="E2:E10">_xlfn.UNIQUE(B2:B183)</f>
+        <v>105317044</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3">
+        <v>105317044</v>
+      </c>
+      <c r="C3" t="str">
+        <v>XM_034465735.1</v>
+      </c>
+      <c r="E3">
+        <v>105347868</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4">
+        <v>105317044</v>
+      </c>
+      <c r="C4" t="str">
+        <v>XM_034465736.1</v>
+      </c>
+      <c r="E4">
+        <v>105328930</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5">
+        <v>105317044</v>
+      </c>
+      <c r="C5" t="str">
+        <v>XM_034465737.1</v>
+      </c>
+      <c r="E5">
+        <v>105339958</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6">
+        <v>105317044</v>
+      </c>
+      <c r="C6" t="str">
+        <v>XM_034465738.1</v>
+      </c>
+      <c r="E6">
+        <v>105330782</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7">
+        <v>105317044</v>
+      </c>
+      <c r="C7" t="str">
+        <v>XM_034473960.1</v>
+      </c>
+      <c r="E7">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8">
+        <v>105317044</v>
+      </c>
+      <c r="C8" t="str">
+        <v>XM_034474502.1</v>
+      </c>
+      <c r="E8">
+        <v>105324167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9">
+        <v>105317044</v>
+      </c>
+      <c r="C9" t="str">
+        <v>XM_034474503.1</v>
+      </c>
+      <c r="E9">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10">
+        <v>105317044</v>
+      </c>
+      <c r="C10" t="str">
+        <v>XM_034478686.1</v>
+      </c>
+      <c r="E10">
+        <v>105317516</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11">
+        <v>105317044</v>
+      </c>
+      <c r="C11" t="str">
+        <v>XM_034478687.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12">
+        <v>105347868</v>
+      </c>
+      <c r="C12" t="str">
+        <v>XM_034478689.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13">
+        <v>105347868</v>
+      </c>
+      <c r="C13" t="str">
+        <v>XM_034478690.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <v>105328930</v>
+      </c>
+      <c r="C14" t="str">
+        <v>XM_034479303.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15">
+        <v>105328930</v>
+      </c>
+      <c r="C15" t="str">
+        <v>XM_034479304.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <v>105328930</v>
+      </c>
+      <c r="C16" t="str">
+        <v>XM_034479305.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17">
+        <v>105328930</v>
+      </c>
+      <c r="C17" t="str">
+        <v>XM_034479306.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18">
+        <v>105339958</v>
+      </c>
+      <c r="C18" t="str">
+        <v>XM_034479307.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19">
+        <v>105339958</v>
+      </c>
+      <c r="C19" t="str">
+        <v>XM_034479684.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20">
+        <v>105339958</v>
+      </c>
+      <c r="C20" t="str">
+        <v>XM_034479685.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21">
+        <v>105339958</v>
+      </c>
+      <c r="C21" t="str">
+        <v>XM_034479686.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22">
+        <v>105330782</v>
+      </c>
+      <c r="C22" t="str">
+        <v>XM_034479687.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23">
+        <v>105330782</v>
+      </c>
+      <c r="C23" t="str">
+        <v>XM_034479688.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24">
+        <v>105330782</v>
+      </c>
+      <c r="C24" t="str">
+        <v>XM_034481540.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25">
+        <v>105330782</v>
+      </c>
+      <c r="C25" t="str">
+        <v>XM_034481541.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26">
+        <v>105330782</v>
+      </c>
+      <c r="C26" t="str">
+        <v>XM_034482479.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27">
+        <v>105330782</v>
+      </c>
+      <c r="C27" t="str">
+        <v>XM_034482480.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28">
+        <v>105330782</v>
+      </c>
+      <c r="C28" t="str">
+        <v>XM_034482481.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29">
+        <v>105330782</v>
+      </c>
+      <c r="C29" t="str">
+        <v>XM_034482482.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30">
+        <v>105330782</v>
+      </c>
+      <c r="C30" t="str">
+        <v>XM_034482483.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31">
+        <v>105330782</v>
+      </c>
+      <c r="C31" t="str">
+        <v>XM_034482484.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32">
+        <v>105330782</v>
+      </c>
+      <c r="C32" t="str">
+        <v>XM_034482485.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33">
+        <v>105330782</v>
+      </c>
+      <c r="C33" t="str">
+        <v>XM_034482486.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34">
+        <v>105330782</v>
+      </c>
+      <c r="C34" t="str">
+        <v>XM_034482487.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35">
+        <v>105330782</v>
+      </c>
+      <c r="C35" t="str">
+        <v>XM_034482488.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36">
+        <v>105330782</v>
+      </c>
+      <c r="C36" t="str">
+        <v>XM_034482647.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37">
+        <v>105330782</v>
+      </c>
+      <c r="C37" t="str">
+        <v>XM_034482648.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38">
+        <v>105330782</v>
+      </c>
+      <c r="C38" t="str">
+        <v>XM_034482649.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39">
+        <v>105330782</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40">
+        <v>105330782</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41">
+        <v>105330782</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42">
+        <v>105330782</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43">
+        <v>105330782</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44">
+        <v>105330782</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45">
+        <v>105330782</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46">
+        <v>105330782</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47">
+        <v>105330782</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48">
+        <v>105330782</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49">
+        <v>105330782</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50">
+        <v>105330782</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51">
+        <v>105330782</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52">
+        <v>105330782</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53">
+        <v>105330782</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54">
+        <v>105330782</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55">
+        <v>105330782</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56">
+        <v>105330782</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>26</v>
+      </c>
+      <c r="B57">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>26</v>
+      </c>
+      <c r="B61">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B62">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>26</v>
+      </c>
+      <c r="B63">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>26</v>
+      </c>
+      <c r="B64">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>26</v>
+      </c>
+      <c r="B68">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>28</v>
+      </c>
+      <c r="B69">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>28</v>
+      </c>
+      <c r="B70">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>28</v>
+      </c>
+      <c r="B71">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>28</v>
+      </c>
+      <c r="B72">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>28</v>
+      </c>
+      <c r="B73">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>28</v>
+      </c>
+      <c r="B74">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>28</v>
+      </c>
+      <c r="B75">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>28</v>
+      </c>
+      <c r="B76">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>28</v>
+      </c>
+      <c r="B77">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>28</v>
+      </c>
+      <c r="B78">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>28</v>
+      </c>
+      <c r="B79">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>28</v>
+      </c>
+      <c r="B80">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>30</v>
+      </c>
+      <c r="B81">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>30</v>
+      </c>
+      <c r="B82">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>30</v>
+      </c>
+      <c r="B83">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>30</v>
+      </c>
+      <c r="B84">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>30</v>
+      </c>
+      <c r="B86">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>30</v>
+      </c>
+      <c r="B87">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>30</v>
+      </c>
+      <c r="B88">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>30</v>
+      </c>
+      <c r="B89">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>30</v>
+      </c>
+      <c r="B90">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>30</v>
+      </c>
+      <c r="B91">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>30</v>
+      </c>
+      <c r="B92">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>32</v>
+      </c>
+      <c r="B93">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>32</v>
+      </c>
+      <c r="B94">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>32</v>
+      </c>
+      <c r="B95">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>32</v>
+      </c>
+      <c r="B96">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>32</v>
+      </c>
+      <c r="B97">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>32</v>
+      </c>
+      <c r="B98">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>32</v>
+      </c>
+      <c r="B99">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>32</v>
+      </c>
+      <c r="B100">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>32</v>
+      </c>
+      <c r="B101">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>32</v>
+      </c>
+      <c r="B102">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>32</v>
+      </c>
+      <c r="B103">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>32</v>
+      </c>
+      <c r="B104">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>34</v>
+      </c>
+      <c r="B105">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>34</v>
+      </c>
+      <c r="B106">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>34</v>
+      </c>
+      <c r="B107">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>34</v>
+      </c>
+      <c r="B108">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>34</v>
+      </c>
+      <c r="B109">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>34</v>
+      </c>
+      <c r="B110">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>34</v>
+      </c>
+      <c r="B111">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>34</v>
+      </c>
+      <c r="B112">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>34</v>
+      </c>
+      <c r="B113">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>34</v>
+      </c>
+      <c r="B114">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>34</v>
+      </c>
+      <c r="B115">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>34</v>
+      </c>
+      <c r="B116">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>108</v>
+      </c>
+      <c r="B117">
+        <v>105324167</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>108</v>
+      </c>
+      <c r="B118">
+        <v>105324167</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>110</v>
+      </c>
+      <c r="B119">
+        <v>105324167</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>110</v>
+      </c>
+      <c r="B120">
+        <v>105324167</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>54</v>
+      </c>
+      <c r="B121">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>54</v>
+      </c>
+      <c r="B122">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>54</v>
+      </c>
+      <c r="B123">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>54</v>
+      </c>
+      <c r="B124">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>54</v>
+      </c>
+      <c r="B125">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>54</v>
+      </c>
+      <c r="B126">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>60</v>
+      </c>
+      <c r="B127">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>60</v>
+      </c>
+      <c r="B128">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>60</v>
+      </c>
+      <c r="B129">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>60</v>
+      </c>
+      <c r="B130">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>60</v>
+      </c>
+      <c r="B131">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>60</v>
+      </c>
+      <c r="B132">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>62</v>
+      </c>
+      <c r="B133">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>62</v>
+      </c>
+      <c r="B134">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>62</v>
+      </c>
+      <c r="B135">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>62</v>
+      </c>
+      <c r="B136">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>62</v>
+      </c>
+      <c r="B137">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>62</v>
+      </c>
+      <c r="B138">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>64</v>
+      </c>
+      <c r="B139">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>64</v>
+      </c>
+      <c r="B140">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>64</v>
+      </c>
+      <c r="B141">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>64</v>
+      </c>
+      <c r="B142">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>64</v>
+      </c>
+      <c r="B143">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>64</v>
+      </c>
+      <c r="B144">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>66</v>
+      </c>
+      <c r="B145">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>66</v>
+      </c>
+      <c r="B146">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>66</v>
+      </c>
+      <c r="B147">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>66</v>
+      </c>
+      <c r="B148">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>66</v>
+      </c>
+      <c r="B149">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>66</v>
+      </c>
+      <c r="B150">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>68</v>
+      </c>
+      <c r="B151">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>68</v>
+      </c>
+      <c r="B152">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>68</v>
+      </c>
+      <c r="B153">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>68</v>
+      </c>
+      <c r="B154">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>68</v>
+      </c>
+      <c r="B155">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>68</v>
+      </c>
+      <c r="B156">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>70</v>
+      </c>
+      <c r="B157">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>70</v>
+      </c>
+      <c r="B158">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>70</v>
+      </c>
+      <c r="B159">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>70</v>
+      </c>
+      <c r="B160">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>70</v>
+      </c>
+      <c r="B161">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>70</v>
+      </c>
+      <c r="B162">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>72</v>
+      </c>
+      <c r="B163">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>72</v>
+      </c>
+      <c r="B164">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>72</v>
+      </c>
+      <c r="B165">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>72</v>
+      </c>
+      <c r="B166">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>72</v>
+      </c>
+      <c r="B167">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>72</v>
+      </c>
+      <c r="B168">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>74</v>
+      </c>
+      <c r="B169">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>74</v>
+      </c>
+      <c r="B170">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>74</v>
+      </c>
+      <c r="B171">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>74</v>
+      </c>
+      <c r="B172">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>74</v>
+      </c>
+      <c r="B173">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>74</v>
+      </c>
+      <c r="B174">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>58</v>
+      </c>
+      <c r="B175">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>58</v>
+      </c>
+      <c r="B176">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>58</v>
+      </c>
+      <c r="B177">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>58</v>
+      </c>
+      <c r="B178">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>58</v>
+      </c>
+      <c r="B179">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>58</v>
+      </c>
+      <c r="B180">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>99</v>
+      </c>
+      <c r="B181">
+        <v>105317516</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>101</v>
+      </c>
+      <c r="B182">
+        <v>105317516</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>103</v>
+      </c>
+      <c r="B183">
+        <v>105317516</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B183">
+    <sortCondition ref="A2:A183"/>
+  </sortState>
+  <dataConsolidate/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/output/12-functional-enrichment/manual-annotations/all-BP-EnrichedGO-DML-ManAnn.xlsx
+++ b/output/12-functional-enrichment/manual-annotations/all-BP-EnrichedGO-DML-ManAnn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaaminivenkataraman/Documents/project-gigas-oa-meth/output/12-functional-enrichment/manual-annotations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5272B6-A10F-1943-A1D7-58CED80B0CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B96375C-1783-8F4D-9134-A57A80B73AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all-BP-EnrichedGO-DML-ManAnn" sheetId="1" r:id="rId1"/>
@@ -1748,8 +1748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M183"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="I162" sqref="I162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9285,7 +9285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" zoomScale="101" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="101" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
